--- a/Tubes/2021_Dec_16_MD_Tube_Cuts_Base_Frame_qty_1.xlsx
+++ b/Tubes/2021_Dec_16_MD_Tube_Cuts_Base_Frame_qty_1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Tube_Frame_Printer\Tubes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74EDA49-85EA-4A86-AD74-0AF3D45ECB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136271C-B9DE-4B64-8C0E-4DED1DFDF065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="1455" windowWidth="12975" windowHeight="11978" xr2:uid="{E9910817-D352-4039-99BB-C5B077FC8E36}"/>
+    <workbookView xWindow="2303" yWindow="2940" windowWidth="12975" windowHeight="11978" activeTab="1" xr2:uid="{E9910817-D352-4039-99BB-C5B077FC8E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>Stock Length</t>
   </si>
@@ -106,12 +107,105 @@
   </si>
   <si>
     <t>Needed</t>
+  </si>
+  <si>
+    <t>Concrete Post</t>
+  </si>
+  <si>
+    <t>Concrete Density</t>
+  </si>
+  <si>
+    <t>lb/ft3</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>Rebar Density lbs/ft</t>
+  </si>
+  <si>
+    <t>lb/ft</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Rebar / concrete</t>
+  </si>
+  <si>
+    <t>lb/yd3</t>
+  </si>
+  <si>
+    <t>Concrete Column Weight</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Rebar Size</t>
+  </si>
+  <si>
+    <t>Rebar Qty</t>
+  </si>
+  <si>
+    <t>Volume Rebar</t>
+  </si>
+  <si>
+    <t>Volume Concrete</t>
+  </si>
+  <si>
+    <t>ft3</t>
+  </si>
+  <si>
+    <t>yd3</t>
+  </si>
+  <si>
+    <t>Weight Concrete</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>Weight Rebar</t>
+  </si>
+  <si>
+    <t>lbs/yd3</t>
+  </si>
+  <si>
+    <t>Rebar/Concrete</t>
+  </si>
+  <si>
+    <t>lbs/yd</t>
+  </si>
+  <si>
+    <t>Total Weight of Column</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -164,6 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7574900-4AE3-4B66-A28A-2CCA88830188}">
   <dimension ref="A7:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -1089,4 +1184,279 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A84C4-6CC0-4C3E-AE2F-9B11DF8F7877}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <f>B4*27</f>
+        <v>4050</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>0.376</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>1.502</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>2.044</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>2.67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="5">
+        <f>(3.14159*((B22/8)/12)^2*B21)*B23</f>
+        <v>0.14726203124999998</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B21*B7*B23</f>
+        <v>18.048000000000002</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B19*B20*B21-B24</f>
+        <v>2.8527379687500001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <f>B26/27</f>
+        <v>0.10565696180555556</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="2">
+        <f>B26*B4</f>
+        <v>427.91069531250002</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B25/B27</f>
+        <v>170.81695036068146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1">
+        <f>B25+B28</f>
+        <v>445.95869531250003</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>